--- a/rapport/caracteristique_des_personnages.xlsx
+++ b/rapport/caracteristique_des_personnages.xlsx
@@ -28,19 +28,19 @@
     <t xml:space="preserve">PV</t>
   </si>
   <si>
-    <t xml:space="preserve">scope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degats </t>
-  </si>
-  <si>
-    <t xml:space="preserve">motion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cost/mana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizzard</t>
+    <t xml:space="preserve">Portée d’Attaque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dégats </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portéée de déplacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coût en mana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magicien</t>
   </si>
   <si>
     <t xml:space="preserve">Goblin</t>
@@ -49,13 +49,13 @@
     <t xml:space="preserve">Golem</t>
   </si>
   <si>
-    <t xml:space="preserve">Bat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dwarf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knight </t>
+    <t xml:space="preserve">Chauve-souris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chevalier</t>
   </si>
 </sst>
 </file>
@@ -131,8 +131,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -156,155 +160,161 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.45"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" s="0" t="n">
+      <c r="D2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" s="0" t="n">
+      <c r="C4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="E4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="C5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="1" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="1" t="n">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
